--- a/src/test/resources/testdata/timesheets.xlsx
+++ b/src/test/resources/testdata/timesheets.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Start</t>
   </si>
@@ -36,19 +36,28 @@
     <t>ScriptureForge</t>
   </si>
   <si>
-    <t xml:space="preserve">Performed Regression Testing</t>
-  </si>
-  <si>
-    <t>26/08/2025</t>
+    <t xml:space="preserve">Emails check up and responses </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performed Ready to Test tasks</t>
   </si>
   <si>
     <t xml:space="preserve">Performed Ad-Hoc Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issue posted in JIRA and Ad-hoc issues posted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily Standup Meeting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11.000000"/>
@@ -77,7 +86,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -86,6 +95,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -616,37 +631,193 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="15">
       <c r="A2" s="2">
-        <v>0.5</v>
+        <v>0.46875</v>
       </c>
       <c r="B2" s="2">
-        <v>1800</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
+      <c r="E2" s="4">
+        <v>45891</v>
       </c>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" s="2">
-        <v>0.75</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="B3" s="2">
-        <v>0.875</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="14.25">
+      <c r="A4" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E4" s="4">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
